--- a/classfiers/nano/decisionTree/nearmiss/nano-decisionTree-nearmiss-results.xlsx
+++ b/classfiers/nano/decisionTree/nearmiss/nano-decisionTree-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.89</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.8125000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9833795013850415</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9889196675900278</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.975609756097561</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.8918128654970759</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9571428571428571</v>
+        <v>0.9441647597254004</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8736842105263157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.976940133037694</v>
+        <v>0.8988703376087276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9727368421052631</v>
+        <v>0.9517697753154817</v>
       </c>
     </row>
   </sheetData>
